--- a/Test_vitesse.xlsx
+++ b/Test_vitesse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C796B8-0827-4568-B091-A7A21912A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3162910-68E4-4770-8A8D-5C54CCE9F184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{FE56C1AE-FBD8-406C-9A82-FDB9EAB36AED}"/>
   </bookViews>
@@ -36,25 +36,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>nbItération</t>
   </si>
   <si>
-    <t>lier</t>
+    <t>ajouter</t>
   </si>
   <si>
-    <t>isoler</t>
+    <t>ratio</t>
   </si>
   <si>
-    <t>ajouter</t>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>lier_Meillleur</t>
+  </si>
+  <si>
+    <t>lier_Pire</t>
+  </si>
+  <si>
+    <t>isoler_Pire</t>
+  </si>
+  <si>
+    <t>isoler_Meilleur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +74,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +182,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34872900262467194"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -187,11 +230,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
+              <c:f>Feuil1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lier</c:v>
+                  <c:v>lier_Pire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -210,27 +253,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$13</c:f>
+              <c:f>Feuil1!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>213346</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1269537</c:v>
+                  <c:v>467000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4615753</c:v>
+                  <c:v>2066000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10838624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26449931</c:v>
+                  <c:v>13208000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174657808</c:v>
+                  <c:v>74204000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -238,77 +281,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D36A-45F0-8C4B-135A37D80C4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>isoler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>679647</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4215843</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14927060</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33049778</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55674510</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D36A-45F0-8C4B-135A37D80C4B}"/>
+              <c16:uniqueId val="{00000001-17B3-49B1-B317-FB2B6E8B4D4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$1</c:f>
+              <c:f>Feuil1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ajouter</c:v>
+                  <c:v>lier_Meillleur</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -327,45 +313,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$2:$D$13</c:f>
+              <c:f>Feuil1!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2281</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3557</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6783</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9651</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12318</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19422</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36035</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39500</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49205</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>463705</c:v>
+                  <c:v>57000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>521500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>994642</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,12 +356,225 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D36A-45F0-8C4B-135A37D80C4B}"/>
+              <c16:uniqueId val="{00000003-17B3-49B1-B317-FB2B6E8B4D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>isoler_Meilleur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-17B3-49B1-B317-FB2B6E8B4D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>isoler_Pire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>552000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19360000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-17B3-49B1-B317-FB2B6E8B4D4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ajouter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-17B3-49B1-B317-FB2B6E8B4D4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -387,16 +583,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="135959920"/>
-        <c:axId val="2065355328"/>
+        <c:axId val="1227525600"/>
+        <c:axId val="1591377520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135959920"/>
+        <c:axId val="1227525600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -418,8 +614,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Nb Itération</a:t>
+                  <a:t>Itération * 25000</a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -452,6 +654,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -488,17 +691,16 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065355328"/>
-        <c:crosses val="max"/>
+        <c:crossAx val="1591377520"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2065355328"/>
+        <c:axId val="1591377520"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
         </c:scaling>
@@ -539,8 +741,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Temps en nanoSecondes</a:t>
+                  <a:t>Temps</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (Millisecondes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -604,7 +811,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135959920"/>
+        <c:crossAx val="1227525600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -617,7 +824,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -649,13 +856,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1251,23 +1451,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206374</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>73024</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22951</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15301</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="17" name="Graphique 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147E3CAA-7913-C926-BE6B-A1521F97EEAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E60CF0C-E469-D012-82E3-DFB934B7BB19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,159 +1785,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD8268-917E-42F1-9287-23F1CDA33CFC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.8">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>10000</v>
       </c>
-      <c r="B2">
-        <v>213346</v>
-      </c>
-      <c r="C2">
-        <v>679647</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>96000</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3/A3</f>
+        <v>9.6</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/A3</f>
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>38000</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3/A3</f>
+        <v>3.8</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3/A3</f>
+        <v>0.1</v>
+      </c>
+      <c r="J3">
         <v>2281</v>
       </c>
+      <c r="K3" s="1">
+        <f>J3/A3</f>
+        <v>0.2281</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>25000</v>
       </c>
-      <c r="B3">
-        <v>1269537</v>
-      </c>
-      <c r="C3">
-        <v>4215843</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>467000</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4/A4</f>
+        <v>18.68</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E13" si="0">D4/A4</f>
+        <v>0.04</v>
+      </c>
+      <c r="F4">
+        <v>92000</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G13" si="1">F4/A4</f>
+        <v>3.68</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I13" si="2">H4/A4</f>
+        <v>0.08</v>
+      </c>
+      <c r="J4">
         <v>3557</v>
       </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K13" si="3">J4/A4</f>
+        <v>0.14227999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>50000</v>
       </c>
-      <c r="B4">
-        <v>4615753</v>
-      </c>
-      <c r="C4">
-        <v>14927060</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>2066000</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5/A5</f>
+        <v>41.32</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>336000</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.72</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="J5">
         <v>6783</v>
       </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13566</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>75000</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>10838624</v>
       </c>
-      <c r="C5">
-        <v>33049778</v>
-      </c>
-      <c r="D5">
+      <c r="C6" s="1">
+        <f>B6/A6</f>
+        <v>144.51498666666666</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="F6">
+        <v>552000</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>7.36</v>
+      </c>
+      <c r="H6">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="J6">
         <v>9651</v>
       </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12867999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>100000</v>
       </c>
-      <c r="B6">
-        <v>26449931</v>
-      </c>
-      <c r="C6">
-        <v>55674510</v>
-      </c>
-      <c r="D6">
+      <c r="B7">
+        <v>13208000</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7/A7</f>
+        <v>132.08000000000001</v>
+      </c>
+      <c r="D7">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>2024000</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>20.239999999999998</v>
+      </c>
+      <c r="H7">
+        <v>2500</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7">
         <v>12318</v>
       </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12318</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>250000</v>
       </c>
-      <c r="B7">
-        <v>174657808</v>
-      </c>
-      <c r="D7">
+      <c r="B8">
+        <v>74204000</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8/A8</f>
+        <v>296.81599999999997</v>
+      </c>
+      <c r="D8">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>19360000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>77.44</v>
+      </c>
+      <c r="H8">
+        <v>7000</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J8">
         <v>19422</v>
       </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7687999999999993E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>500000</v>
       </c>
-      <c r="D8">
+      <c r="C9" s="1">
+        <f>B9/A9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>17000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>12000</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J9">
         <v>36035</v>
       </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2069999999999995E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>750000</v>
       </c>
-      <c r="D9">
+      <c r="C10" s="1">
+        <f>B10/A10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>17000</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2666666666666668E-2</v>
+      </c>
+      <c r="J10">
         <v>39500</v>
       </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2666666666666667E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>1000000</v>
       </c>
-      <c r="D10">
+      <c r="C11" s="1">
+        <f>B11/A11</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>24000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>22000</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J11">
         <v>49205</v>
       </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9204999999999999E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12/A12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>57000</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>47000</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>231000</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5000000</v>
       </c>
-      <c r="D11">
-        <v>463705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>7500000</v>
-      </c>
-      <c r="D12">
-        <v>521500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>10000000</v>
+      <c r="C13" s="1">
+        <f>B13/A13</f>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>994642</v>
+        <v>114000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>104000</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J13">
+        <v>470000</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K3:K13">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79160567-A3EC-4629-8F44-68401B5437A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BD4F739-C551-47A6-B20A-04EB8CD78139}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EE84F878-A71D-46C9-8040-39E90FA789F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4394C765-24DC-4929-B8A9-8D52F8BD178B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I13">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{338BA8A6-C504-4965-A354-23B74BC02153}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79160567-A3EC-4629-8F44-68401B5437A5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K3:K13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BD4F739-C551-47A6-B20A-04EB8CD78139}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE84F878-A71D-46C9-8040-39E90FA789F3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4394C765-24DC-4929-B8A9-8D52F8BD178B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{338BA8A6-C504-4965-A354-23B74BC02153}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I3:I13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>